--- a/data/trans_orig/VUL_OTRO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/VUL_OTRO-Estudios-trans_orig.xlsx
@@ -3072,12 +3072,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>1141</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -3087,12 +3087,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -3185,12 +3185,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>413567</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>414708</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -3200,12 +3200,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>99,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">

--- a/data/trans_orig/VUL_OTRO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/VUL_OTRO-Estudios-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante otros problemas de salud mental en País Vasco</t>
+          <t>Vulnerabilidad ante otros problemas de salud mental en País Vasco (tasa de respuesta: 99,34%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2156,7 +2156,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante otros problemas de salud mental en C.Valenciana</t>
+          <t>Vulnerabilidad ante otros problemas de salud mental en C.Valenciana (tasa de respuesta: 99,79%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3767,7 +3767,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante otros problemas de salud mental en Barcelona</t>
+          <t>Vulnerabilidad ante otros problemas de salud mental en Barcelona (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/VUL_OTRO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/VUL_OTRO-Estudios-trans_orig.xlsx
@@ -735,32 +735,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>782</t>
+          <t>1163</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>443</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1780</t>
+          <t>2488</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -770,67 +770,67 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1724</t>
+          <t>897</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>716</t>
+          <t>364</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>3614</t>
+          <t>1761</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
+          <t>0,3%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>1,45%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>2060</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>1136</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>3591</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>1,01%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
           <t>0,56%</t>
         </is>
       </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>2,83%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>2506</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>1383</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>4663</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>1,16%</t>
-        </is>
-      </c>
-      <c r="V4" s="2" t="inlineStr">
-        <is>
-          <t>0,64%</t>
-        </is>
-      </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>1,76%</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>87061</t>
+          <t>81053</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>86063</t>
+          <t>79728</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>87552</t>
+          <t>81773</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>99,11%</t>
+          <t>98,59%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>97,97%</t>
+          <t>96,97%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>99,67%</t>
+          <t>99,46%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -883,67 +883,67 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>125920</t>
+          <t>120489</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>124030</t>
+          <t>119625</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>126928</t>
+          <t>121022</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>98,65%</t>
+          <t>99,26%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>97,17%</t>
+          <t>98,55%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
+          <t>99,7%</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>1240</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>201543</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>200012</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>202467</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>98,99%</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>98,24%</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
           <t>99,44%</t>
-        </is>
-      </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>1240</t>
-        </is>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>212982</t>
-        </is>
-      </c>
-      <c r="S5" s="2" t="inlineStr">
-        <is>
-          <t>210825</t>
-        </is>
-      </c>
-      <c r="T5" s="2" t="inlineStr">
-        <is>
-          <t>214105</t>
-        </is>
-      </c>
-      <c r="U5" s="2" t="inlineStr">
-        <is>
-          <t>98,84%</t>
-        </is>
-      </c>
-      <c r="V5" s="2" t="inlineStr">
-        <is>
-          <t>97,84%</t>
-        </is>
-      </c>
-      <c r="W5" s="2" t="inlineStr">
-        <is>
-          <t>99,36%</t>
         </is>
       </c>
     </row>
@@ -961,17 +961,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>87843</t>
+          <t>82216</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>87843</t>
+          <t>82216</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>87843</t>
+          <t>82216</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -996,17 +996,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>127644</t>
+          <t>121386</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>127644</t>
+          <t>121386</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>127644</t>
+          <t>121386</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1031,17 +1031,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>215488</t>
+          <t>203603</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>215488</t>
+          <t>203603</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>215488</t>
+          <t>203603</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1078,32 +1078,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1635</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>860</t>
+          <t>975</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3295</t>
+          <t>3639</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1113,67 +1113,67 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2934</t>
+          <t>3438</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1788</t>
+          <t>2234</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4798</t>
+          <t>5563</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
+          <t>0,5%</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>1,25%</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>5423</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>3687</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>8067</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>0,6%</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
           <t>0,41%</t>
         </is>
       </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>1,11%</t>
-        </is>
-      </c>
-      <c r="Q7" s="2" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>4569</t>
-        </is>
-      </c>
-      <c r="S7" s="2" t="inlineStr">
-        <is>
-          <t>3128</t>
-        </is>
-      </c>
-      <c r="T7" s="2" t="inlineStr">
-        <is>
-          <t>6641</t>
-        </is>
-      </c>
-      <c r="U7" s="2" t="inlineStr">
-        <is>
-          <t>0,52%</t>
-        </is>
-      </c>
-      <c r="V7" s="2" t="inlineStr">
-        <is>
-          <t>0,35%</t>
-        </is>
-      </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>0,89%</t>
         </is>
       </c>
     </row>
@@ -1191,32 +1191,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>450330</t>
+          <t>458854</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>448670</t>
+          <t>457199</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>451105</t>
+          <t>459863</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>99,64%</t>
+          <t>99,57%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>99,27%</t>
+          <t>99,21%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,81%</t>
+          <t>99,79%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1226,67 +1226,67 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>428723</t>
+          <t>441539</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>426859</t>
+          <t>439414</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>429869</t>
+          <t>442743</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>99,32%</t>
+          <t>99,23%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>98,89%</t>
+          <t>98,75%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
+          <t>99,5%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>5111</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>900392</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>897748</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>902128</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>99,4%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>99,11%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
           <t>99,59%</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr">
-        <is>
-          <t>5111</t>
-        </is>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>879053</t>
-        </is>
-      </c>
-      <c r="S8" s="2" t="inlineStr">
-        <is>
-          <t>876981</t>
-        </is>
-      </c>
-      <c r="T8" s="2" t="inlineStr">
-        <is>
-          <t>880494</t>
-        </is>
-      </c>
-      <c r="U8" s="2" t="inlineStr">
-        <is>
-          <t>99,48%</t>
-        </is>
-      </c>
-      <c r="V8" s="2" t="inlineStr">
-        <is>
-          <t>99,25%</t>
-        </is>
-      </c>
-      <c r="W8" s="2" t="inlineStr">
-        <is>
-          <t>99,65%</t>
         </is>
       </c>
     </row>
@@ -1304,17 +1304,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>451965</t>
+          <t>460838</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>451965</t>
+          <t>460838</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>451965</t>
+          <t>460838</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1339,17 +1339,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>431657</t>
+          <t>444977</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>431657</t>
+          <t>444977</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>431657</t>
+          <t>444977</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1374,17 +1374,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>883622</t>
+          <t>905815</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>883622</t>
+          <t>905815</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>883622</t>
+          <t>905815</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1421,32 +1421,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1206</t>
+          <t>1065</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>424</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2796</t>
+          <t>2408</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1456,32 +1456,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>819</t>
+          <t>597</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>153</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>2135</t>
+          <t>1432</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>0,07%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1491,32 +1491,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>1662</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>954</t>
+          <t>894</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>3802</t>
+          <t>3026</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>0,75%</t>
         </is>
       </c>
     </row>
@@ -1534,32 +1534,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>149813</t>
+          <t>174299</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>148223</t>
+          <t>172956</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>150554</t>
+          <t>174940</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>99,2%</t>
+          <t>99,39%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>98,15%</t>
+          <t>98,63%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,69%</t>
+          <t>99,76%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1569,32 +1569,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>193861</t>
+          <t>227936</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>192545</t>
+          <t>227101</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>194454</t>
+          <t>228380</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>99,58%</t>
+          <t>99,74%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>98,9%</t>
+          <t>99,37%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>99,88%</t>
+          <t>99,93%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1604,32 +1604,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>343674</t>
+          <t>402235</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>341897</t>
+          <t>400871</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>344745</t>
+          <t>403003</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>99,41%</t>
+          <t>99,59%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>98,9%</t>
+          <t>99,25%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>99,72%</t>
+          <t>99,78%</t>
         </is>
       </c>
     </row>
@@ -1647,17 +1647,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>151019</t>
+          <t>175364</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>151019</t>
+          <t>175364</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>151019</t>
+          <t>175364</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1682,17 +1682,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>194680</t>
+          <t>228533</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>194680</t>
+          <t>228533</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>194680</t>
+          <t>228533</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1717,17 +1717,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>345699</t>
+          <t>403897</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>345699</t>
+          <t>403897</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>345699</t>
+          <t>403897</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1764,32 +1764,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3624</t>
+          <t>4212</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2259</t>
+          <t>2739</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5423</t>
+          <t>6489</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1799,32 +1799,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5477</t>
+          <t>4932</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3726</t>
+          <t>3354</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8195</t>
+          <t>7162</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1834,32 +1834,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>9101</t>
+          <t>9144</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>6684</t>
+          <t>6749</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>12151</t>
+          <t>12244</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>0,81%</t>
         </is>
       </c>
     </row>
@@ -1877,32 +1877,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>687203</t>
+          <t>714207</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>685404</t>
+          <t>711930</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>688568</t>
+          <t>715680</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>99,48%</t>
+          <t>99,41%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>99,22%</t>
+          <t>99,1%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,67%</t>
+          <t>99,62%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1912,32 +1912,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>748504</t>
+          <t>789964</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>745786</t>
+          <t>787734</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>750255</t>
+          <t>791542</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>99,27%</t>
+          <t>99,38%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>98,91%</t>
+          <t>99,1%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>99,51%</t>
+          <t>99,58%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1947,32 +1947,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1435708</t>
+          <t>1504171</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1432658</t>
+          <t>1501071</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1438125</t>
+          <t>1506566</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>99,37%</t>
+          <t>99,4%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>99,16%</t>
+          <t>99,19%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>99,54%</t>
+          <t>99,55%</t>
         </is>
       </c>
     </row>
@@ -1990,17 +1990,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>690827</t>
+          <t>718419</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>690827</t>
+          <t>718419</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>690827</t>
+          <t>718419</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>753981</t>
+          <t>794896</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>753981</t>
+          <t>794896</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>753981</t>
+          <t>794896</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2060,17 +2060,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1444809</t>
+          <t>1513315</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1444809</t>
+          <t>1513315</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1444809</t>
+          <t>1513315</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -3962,12 +3962,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9172</t>
+          <t>9223</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>26525</t>
+          <t>26596</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3977,12 +3977,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,31%</t>
+          <t>9,36%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>26,91%</t>
+          <t>26,99%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -3997,12 +3997,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>12219</t>
+          <t>12187</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>29175</t>
+          <t>29797</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -4012,12 +4012,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>10,12%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>24,22%</t>
+          <t>24,74%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -4032,12 +4032,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>24364</t>
+          <t>25270</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>49454</t>
+          <t>47931</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -4047,12 +4047,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>11,54%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>22,58%</t>
+          <t>21,89%</t>
         </is>
       </c>
     </row>
@@ -4075,12 +4075,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>72030</t>
+          <t>71959</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>89383</t>
+          <t>89332</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -4090,12 +4090,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>73,09%</t>
+          <t>73,01%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>90,69%</t>
+          <t>90,64%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -4110,12 +4110,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>91282</t>
+          <t>90660</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>108238</t>
+          <t>108270</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -4125,12 +4125,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>75,78%</t>
+          <t>75,26%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>89,86%</t>
+          <t>89,88%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -4145,12 +4145,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>169557</t>
+          <t>171080</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>194647</t>
+          <t>193741</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -4160,12 +4160,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>77,42%</t>
+          <t>78,11%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>88,88%</t>
+          <t>88,46%</t>
         </is>
       </c>
     </row>
@@ -4305,12 +4305,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11798</t>
+          <t>11515</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22684</t>
+          <t>23447</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -4320,12 +4320,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -4340,12 +4340,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10425</t>
+          <t>10534</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>20975</t>
+          <t>21547</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -4355,12 +4355,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -4375,12 +4375,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>23797</t>
+          <t>24955</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>39091</t>
+          <t>40421</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -4390,12 +4390,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>5,51%</t>
+          <t>5,7%</t>
         </is>
       </c>
     </row>
@@ -4418,12 +4418,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>332437</t>
+          <t>331674</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>343323</t>
+          <t>343606</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -4433,12 +4433,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>93,61%</t>
+          <t>93,4%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>96,68%</t>
+          <t>96,76%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -4453,12 +4453,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>333614</t>
+          <t>333042</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>344164</t>
+          <t>344055</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -4468,12 +4468,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>94,08%</t>
+          <t>93,92%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>97,06%</t>
+          <t>97,03%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -4488,12 +4488,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>670619</t>
+          <t>669289</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>685913</t>
+          <t>684755</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -4503,12 +4503,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>94,49%</t>
+          <t>94,3%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>96,65%</t>
+          <t>96,48%</t>
         </is>
       </c>
     </row>
@@ -4648,12 +4648,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1955</t>
+          <t>1952</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7928</t>
+          <t>7263</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4683,12 +4683,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3891</t>
+          <t>3766</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>10501</t>
+          <t>11061</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4698,12 +4698,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4718,12 +4718,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>6933</t>
+          <t>6919</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>15881</t>
+          <t>15789</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4733,12 +4733,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>3,11%</t>
         </is>
       </c>
     </row>
@@ -4761,12 +4761,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>216682</t>
+          <t>217347</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>222655</t>
+          <t>222658</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4776,7 +4776,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,47%</t>
+          <t>96,77%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -4796,12 +4796,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>272459</t>
+          <t>271899</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>279069</t>
+          <t>279194</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -4811,12 +4811,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>96,29%</t>
+          <t>96,09%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>98,62%</t>
+          <t>98,67%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -4831,12 +4831,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>491689</t>
+          <t>491781</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>500637</t>
+          <t>500651</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -4846,12 +4846,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>96,87%</t>
+          <t>96,89%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,63%</t>
+          <t>98,64%</t>
         </is>
       </c>
     </row>
@@ -4991,12 +4991,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>26921</t>
+          <t>27258</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>51018</t>
+          <t>49700</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -5006,12 +5006,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -5026,12 +5026,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>31160</t>
+          <t>30383</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>52629</t>
+          <t>53825</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -5041,12 +5041,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -5061,12 +5061,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>62692</t>
+          <t>63041</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>93347</t>
+          <t>94793</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -5076,12 +5076,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>6,6%</t>
         </is>
       </c>
     </row>
@@ -5104,12 +5104,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>627268</t>
+          <t>628586</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>651365</t>
+          <t>651028</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -5119,12 +5119,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>92,48%</t>
+          <t>92,67%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>96,03%</t>
+          <t>95,98%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -5139,12 +5139,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>705377</t>
+          <t>704181</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>726846</t>
+          <t>727623</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -5154,12 +5154,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>93,06%</t>
+          <t>92,9%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>95,89%</t>
+          <t>95,99%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -5174,12 +5174,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1342945</t>
+          <t>1341499</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1373600</t>
+          <t>1373251</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -5189,12 +5189,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>93,5%</t>
+          <t>93,4%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>95,64%</t>
+          <t>95,61%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/VUL_OTRO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/VUL_OTRO-Estudios-trans_orig.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante otros problemas de salud mental en País Vasco (tasa de respuesta: 99,34%)</t>
+          <t>Vulnerabilidad ante otros problemas de salud mental en Barcelona (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -730,107 +730,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1163</t>
+          <t>15812</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>9223</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2488</t>
+          <t>26596</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>16,04%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>9,36%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>26,99%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>30</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>897</t>
+          <t>19447</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>12187</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>1761</t>
+          <t>29797</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>16,14%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>10,12%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>24,74%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>54</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>2060</t>
+          <t>35259</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>1136</t>
+          <t>25270</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>3591</t>
+          <t>47931</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>16,1%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>11,54%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>21,89%</t>
         </is>
       </c>
     </row>
@@ -843,107 +843,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>171</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>81053</t>
+          <t>82743</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>79728</t>
+          <t>71959</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>81773</t>
+          <t>89332</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>98,59%</t>
+          <t>83,96%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>96,97%</t>
+          <t>73,01%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>99,46%</t>
+          <t>90,64%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>745</t>
+          <t>267</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>120489</t>
+          <t>101010</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>119625</t>
+          <t>90660</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>121022</t>
+          <t>108270</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>99,26%</t>
+          <t>83,86%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>98,55%</t>
+          <t>75,26%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>99,7%</t>
+          <t>89,88%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1240</t>
+          <t>438</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>201543</t>
+          <t>183752</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>200012</t>
+          <t>171080</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>202467</t>
+          <t>193741</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>98,99%</t>
+          <t>83,9%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>98,24%</t>
+          <t>78,11%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>99,44%</t>
+          <t>88,46%</t>
         </is>
       </c>
     </row>
@@ -956,22 +956,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>195</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>82216</t>
+          <t>98555</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>82216</t>
+          <t>98555</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>82216</t>
+          <t>98555</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -991,22 +991,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>753</t>
+          <t>297</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>121386</t>
+          <t>120457</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>121386</t>
+          <t>120457</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>121386</t>
+          <t>120457</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1026,22 +1026,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1254</t>
+          <t>492</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>203603</t>
+          <t>219011</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>203603</t>
+          <t>219011</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>203603</t>
+          <t>219011</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1073,107 +1073,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>16680</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>975</t>
+          <t>11515</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3639</t>
+          <t>23447</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3438</t>
+          <t>14811</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2234</t>
+          <t>10534</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5563</t>
+          <t>21547</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>67</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>5423</t>
+          <t>31490</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>3687</t>
+          <t>24955</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>8067</t>
+          <t>40421</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>5,7%</t>
         </is>
       </c>
     </row>
@@ -1186,107 +1186,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2628</t>
+          <t>757</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>458854</t>
+          <t>338441</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>457199</t>
+          <t>331674</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>459863</t>
+          <t>343606</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>99,57%</t>
+          <t>95,3%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>99,21%</t>
+          <t>93,4%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,79%</t>
+          <t>96,76%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2483</t>
+          <t>777</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>441539</t>
+          <t>339778</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>439414</t>
+          <t>333042</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>442743</t>
+          <t>344055</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>99,23%</t>
+          <t>95,82%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>98,75%</t>
+          <t>93,92%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>99,5%</t>
+          <t>97,03%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>5111</t>
+          <t>1534</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>900392</t>
+          <t>678220</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>897748</t>
+          <t>669289</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>902128</t>
+          <t>684755</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>99,4%</t>
+          <t>95,56%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>99,11%</t>
+          <t>94,3%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>99,59%</t>
+          <t>96,48%</t>
         </is>
       </c>
     </row>
@@ -1299,22 +1299,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2639</t>
+          <t>792</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>460838</t>
+          <t>355121</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>460838</t>
+          <t>355121</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>460838</t>
+          <t>355121</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1334,22 +1334,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2503</t>
+          <t>809</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>444977</t>
+          <t>354589</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>444977</t>
+          <t>354589</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>444977</t>
+          <t>354589</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1369,22 +1369,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>5142</t>
+          <t>1601</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>905815</t>
+          <t>709710</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>905815</t>
+          <t>709710</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>905815</t>
+          <t>709710</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1416,107 +1416,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1065</t>
+          <t>3966</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>1952</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2408</t>
+          <t>7263</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>597</t>
+          <t>6413</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>3766</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>1432</t>
+          <t>11061</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>27</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>1662</t>
+          <t>10379</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>894</t>
+          <t>6919</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>3026</t>
+          <t>15789</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>3,11%</t>
         </is>
       </c>
     </row>
@@ -1529,107 +1529,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>899</t>
+          <t>632</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>174299</t>
+          <t>220644</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>172956</t>
+          <t>217347</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>174940</t>
+          <t>222658</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>99,39%</t>
+          <t>98,23%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>98,63%</t>
+          <t>96,77%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,76%</t>
+          <t>99,13%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1198</t>
+          <t>745</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>227936</t>
+          <t>276547</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>227101</t>
+          <t>271899</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>228380</t>
+          <t>279194</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>99,74%</t>
+          <t>97,73%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>99,37%</t>
+          <t>96,09%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>99,93%</t>
+          <t>98,67%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>2097</t>
+          <t>1377</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>402235</t>
+          <t>497191</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>400871</t>
+          <t>491781</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>403003</t>
+          <t>500651</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>99,59%</t>
+          <t>97,96%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>99,25%</t>
+          <t>96,89%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>99,78%</t>
+          <t>98,64%</t>
         </is>
       </c>
     </row>
@@ -1642,22 +1642,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>906</t>
+          <t>643</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>175364</t>
+          <t>224610</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>175364</t>
+          <t>224610</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>175364</t>
+          <t>224610</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1677,22 +1677,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1202</t>
+          <t>761</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>228533</t>
+          <t>282960</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>228533</t>
+          <t>282960</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>228533</t>
+          <t>282960</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1712,22 +1712,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>2108</t>
+          <t>1404</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>403897</t>
+          <t>507570</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>403897</t>
+          <t>507570</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>403897</t>
+          <t>507570</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1759,107 +1759,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4212</t>
+          <t>36458</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2739</t>
+          <t>27258</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6489</t>
+          <t>49700</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>78</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4932</t>
+          <t>40671</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3354</t>
+          <t>30383</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7162</t>
+          <t>53825</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>148</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>9144</t>
+          <t>77129</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>6749</t>
+          <t>63041</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>12244</t>
+          <t>94793</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>6,6%</t>
         </is>
       </c>
     </row>
@@ -1872,107 +1872,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4022</t>
+          <t>1560</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>714207</t>
+          <t>641828</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>711930</t>
+          <t>628586</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>715680</t>
+          <t>651028</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>99,41%</t>
+          <t>94,62%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>99,1%</t>
+          <t>92,67%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99,62%</t>
+          <t>95,98%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>4426</t>
+          <t>1789</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>789964</t>
+          <t>717335</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>787734</t>
+          <t>704181</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>791542</t>
+          <t>727623</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>99,38%</t>
+          <t>94,63%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>99,1%</t>
+          <t>92,9%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>99,58%</t>
+          <t>95,99%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>8448</t>
+          <t>3349</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1504171</t>
+          <t>1359163</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1501071</t>
+          <t>1341499</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1506566</t>
+          <t>1373251</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>99,4%</t>
+          <t>94,63%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>99,19%</t>
+          <t>93,4%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>99,55%</t>
+          <t>95,61%</t>
         </is>
       </c>
     </row>
@@ -1985,22 +1985,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4046</t>
+          <t>1630</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>718419</t>
+          <t>678286</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>718419</t>
+          <t>678286</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>718419</t>
+          <t>678286</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2020,22 +2020,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4458</t>
+          <t>1867</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>794896</t>
+          <t>758006</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>794896</t>
+          <t>758006</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>794896</t>
+          <t>758006</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2055,22 +2055,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>8504</t>
+          <t>3497</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1513315</t>
+          <t>1436292</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1513315</t>
+          <t>1436292</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1513315</t>
+          <t>1436292</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -3767,7 +3767,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante otros problemas de salud mental en Barcelona (tasa de respuesta: 99,86%)</t>
+          <t>Vulnerabilidad ante otros problemas de salud mental en País Vasco (tasa de respuesta: 99,34%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3952,107 +3952,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>15812</t>
+          <t>1163</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9223</t>
+          <t>443</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>26596</t>
+          <t>2488</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>16,04%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,36%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>26,99%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>19447</t>
+          <t>897</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>12187</t>
+          <t>364</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>29797</t>
+          <t>1761</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>16,14%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>24,74%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>14</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>35259</t>
+          <t>2060</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>25270</t>
+          <t>1136</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>47931</t>
+          <t>3591</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>16,1%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>11,54%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>21,89%</t>
+          <t>1,76%</t>
         </is>
       </c>
     </row>
@@ -4065,107 +4065,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>495</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>82743</t>
+          <t>81053</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>71959</t>
+          <t>79728</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>89332</t>
+          <t>81773</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>83,96%</t>
+          <t>98,59%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>73,01%</t>
+          <t>96,97%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>90,64%</t>
+          <t>99,46%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>745</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>101010</t>
+          <t>120489</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>90660</t>
+          <t>119625</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>108270</t>
+          <t>121022</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>83,86%</t>
+          <t>99,26%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>75,26%</t>
+          <t>98,55%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>89,88%</t>
+          <t>99,7%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>1240</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>183752</t>
+          <t>201543</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>171080</t>
+          <t>200012</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>193741</t>
+          <t>202467</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>83,9%</t>
+          <t>98,99%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>78,11%</t>
+          <t>98,24%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>88,46%</t>
+          <t>99,44%</t>
         </is>
       </c>
     </row>
@@ -4178,22 +4178,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>501</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>98555</t>
+          <t>82216</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>98555</t>
+          <t>82216</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>98555</t>
+          <t>82216</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -4213,22 +4213,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>753</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>120457</t>
+          <t>121386</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>120457</t>
+          <t>121386</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>120457</t>
+          <t>121386</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4248,22 +4248,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>1254</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>219011</t>
+          <t>203603</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>219011</t>
+          <t>203603</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>219011</t>
+          <t>203603</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4295,107 +4295,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16680</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11515</t>
+          <t>975</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>23447</t>
+          <t>3639</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14811</t>
+          <t>3438</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10534</t>
+          <t>2234</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>21547</t>
+          <t>5563</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>31</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>31490</t>
+          <t>5423</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>24955</t>
+          <t>3687</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>40421</t>
+          <t>8067</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>0,89%</t>
         </is>
       </c>
     </row>
@@ -4408,107 +4408,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>757</t>
+          <t>2628</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>338441</t>
+          <t>458854</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>331674</t>
+          <t>457199</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>343606</t>
+          <t>459863</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>95,3%</t>
+          <t>99,57%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>93,4%</t>
+          <t>99,21%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>96,76%</t>
+          <t>99,79%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>777</t>
+          <t>2483</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>339778</t>
+          <t>441539</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>333042</t>
+          <t>439414</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>344055</t>
+          <t>442743</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>95,82%</t>
+          <t>99,23%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>93,92%</t>
+          <t>98,75%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>97,03%</t>
+          <t>99,5%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>1534</t>
+          <t>5111</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>678220</t>
+          <t>900392</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>669289</t>
+          <t>897748</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>684755</t>
+          <t>902128</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>95,56%</t>
+          <t>99,4%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>94,3%</t>
+          <t>99,11%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>96,48%</t>
+          <t>99,59%</t>
         </is>
       </c>
     </row>
@@ -4521,22 +4521,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>792</t>
+          <t>2639</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>355121</t>
+          <t>460838</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>355121</t>
+          <t>460838</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>355121</t>
+          <t>460838</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -4556,22 +4556,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>809</t>
+          <t>2503</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>354589</t>
+          <t>444977</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>354589</t>
+          <t>444977</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>354589</t>
+          <t>444977</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4591,22 +4591,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>1601</t>
+          <t>5142</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>709710</t>
+          <t>905815</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>709710</t>
+          <t>905815</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>709710</t>
+          <t>905815</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4638,107 +4638,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1065</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>424</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2408</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0,61%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0,24%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1,37%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>597</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>1432</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,26%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0,07%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0,63%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3966</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1952</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>7263</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>1,77%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,87%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>3,23%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>6413</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>3766</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>11061</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>2,27%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>1,33%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>3,91%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>10379</t>
+          <t>1662</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>6919</t>
+          <t>894</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>15789</t>
+          <t>3026</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>0,75%</t>
         </is>
       </c>
     </row>
@@ -4751,107 +4751,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>899</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>220644</t>
+          <t>174299</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>217347</t>
+          <t>172956</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>222658</t>
+          <t>174940</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,23%</t>
+          <t>99,39%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,77%</t>
+          <t>98,63%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,13%</t>
+          <t>99,76%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>745</t>
+          <t>1198</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>276547</t>
+          <t>227936</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>271899</t>
+          <t>227101</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>279194</t>
+          <t>228380</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>97,73%</t>
+          <t>99,74%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>96,09%</t>
+          <t>99,37%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>98,67%</t>
+          <t>99,93%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1377</t>
+          <t>2097</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>497191</t>
+          <t>402235</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>491781</t>
+          <t>400871</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>500651</t>
+          <t>403003</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>97,96%</t>
+          <t>99,59%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>96,89%</t>
+          <t>99,25%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,64%</t>
+          <t>99,78%</t>
         </is>
       </c>
     </row>
@@ -4864,22 +4864,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>906</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>224610</t>
+          <t>175364</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>224610</t>
+          <t>175364</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>224610</t>
+          <t>175364</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4899,22 +4899,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>761</t>
+          <t>1202</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>282960</t>
+          <t>228533</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>282960</t>
+          <t>228533</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>282960</t>
+          <t>228533</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4934,22 +4934,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1404</t>
+          <t>2108</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>507570</t>
+          <t>403897</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>507570</t>
+          <t>403897</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>507570</t>
+          <t>403897</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4981,107 +4981,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>36458</t>
+          <t>4212</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>27258</t>
+          <t>2739</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>49700</t>
+          <t>6489</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>32</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>40671</t>
+          <t>4932</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>30383</t>
+          <t>3354</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>53825</t>
+          <t>7162</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>56</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>77129</t>
+          <t>9144</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>63041</t>
+          <t>6749</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>94793</t>
+          <t>12244</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>0,81%</t>
         </is>
       </c>
     </row>
@@ -5094,107 +5094,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1560</t>
+          <t>4022</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>641828</t>
+          <t>714207</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>628586</t>
+          <t>711930</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>651028</t>
+          <t>715680</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>94,62%</t>
+          <t>99,41%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>92,67%</t>
+          <t>99,1%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>95,98%</t>
+          <t>99,62%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>1789</t>
+          <t>4426</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>717335</t>
+          <t>789964</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>704181</t>
+          <t>787734</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>727623</t>
+          <t>791542</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>94,63%</t>
+          <t>99,38%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>92,9%</t>
+          <t>99,1%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>95,99%</t>
+          <t>99,58%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>3349</t>
+          <t>8448</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1359163</t>
+          <t>1504171</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1341499</t>
+          <t>1501071</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1373251</t>
+          <t>1506566</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>94,63%</t>
+          <t>99,4%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>93,4%</t>
+          <t>99,19%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>95,61%</t>
+          <t>99,55%</t>
         </is>
       </c>
     </row>
@@ -5207,22 +5207,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1630</t>
+          <t>4046</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>678286</t>
+          <t>718419</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>678286</t>
+          <t>718419</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>678286</t>
+          <t>718419</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -5242,22 +5242,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1867</t>
+          <t>4458</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>758006</t>
+          <t>794896</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>758006</t>
+          <t>794896</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>758006</t>
+          <t>794896</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5277,22 +5277,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>3497</t>
+          <t>8504</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1436292</t>
+          <t>1513315</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1436292</t>
+          <t>1513315</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1436292</t>
+          <t>1513315</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
